--- a/FME_files/LOOKUP_TABLES/Keyword.xlsx
+++ b/FME_files/LOOKUP_TABLES/Keyword.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>original_value</t>
   </si>
@@ -32,10 +32,70 @@
     <t>real_value_english</t>
   </si>
   <si>
-    <t>utilitiesCommuncation</t>
-  </si>
-  <si>
     <t>utilitiesCommunication</t>
+  </si>
+  <si>
+    <t>biota</t>
+  </si>
+  <si>
+    <t>boundaries</t>
+  </si>
+  <si>
+    <t>climatologyMeteorologyAtmosphere</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>farming</t>
+  </si>
+  <si>
+    <t>geoscientificInformation</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>imageryBaseMapsEarthCover</t>
+  </si>
+  <si>
+    <t>intelligenceMilitary</t>
+  </si>
+  <si>
+    <t>inlandWaters</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>oceans</t>
+  </si>
+  <si>
+    <t>planningCadastre</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>inlandwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inlandwaters</t>
   </si>
 </sst>
 </file>
@@ -91,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -353,16 +413,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -375,10 +435,178 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/FME_files/LOOKUP_TABLES/Keyword.xlsx
+++ b/FME_files/LOOKUP_TABLES/Keyword.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>original_value</t>
   </si>
@@ -32,9 +32,18 @@
     <t>real_value_english</t>
   </si>
   <si>
+    <t>utilitiesCommuncation</t>
+  </si>
+  <si>
     <t>utilitiesCommunication</t>
   </si>
   <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
     <t>biota</t>
   </si>
   <si>
@@ -48,9 +57,6 @@
   </si>
   <si>
     <t>elevation</t>
-  </si>
-  <si>
-    <t>environment</t>
   </si>
   <si>
     <t>farming</t>
@@ -413,16 +419,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,7 +441,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -446,55 +452,55 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,26 +585,26 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +612,23 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
